--- a/内部编号列表/[hack]Upgraliam Mod.xlsx
+++ b/内部编号列表/[hack]Upgraliam Mod.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="464">
   <si>
     <r>
       <rPr>
@@ -3127,6 +3127,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>子弹编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>裂夹射手</t>
     </r>
   </si>
@@ -3149,6 +3160,28 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>子弹名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>图鉴编号</t>
     </r>
   </si>
@@ -3160,6 +3193,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>寒冰豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>植物</t>
     </r>
   </si>
@@ -3175,24 +3219,79 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷心菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>豌豆射手</t>
   </si>
   <si>
     <t>咖啡豆</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孢子</t>
+    </r>
+  </si>
+  <si>
     <t>向日葵</t>
   </si>
   <si>
     <t>大蒜</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰西瓜</t>
+    </r>
+  </si>
+  <si>
     <t>樱桃炸弹</t>
   </si>
   <si>
     <t>叶子保护伞</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火球</t>
+    </r>
+  </si>
+  <si>
     <t>坚果墙</t>
   </si>
   <si>
@@ -3205,6 +3304,17 @@
     <t>西瓜投手</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺</t>
+    </r>
+  </si>
+  <si>
     <t>寒冰射手</t>
   </si>
   <si>
@@ -3214,6 +3324,17 @@
     <t>木桶僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>篮球</t>
+    </r>
+  </si>
+  <si>
     <t>大嘴花</t>
   </si>
   <si>
@@ -3223,36 +3344,102 @@
     <t>冒充大人小鬼僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米粒</t>
+    </r>
+  </si>
+  <si>
     <t>双发射手</t>
   </si>
   <si>
     <t>火焰射手</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米棒</t>
+    </r>
+  </si>
+  <si>
     <t>冰山莴苣</t>
   </si>
   <si>
     <t>辣椒投手</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄油</t>
+    </r>
+  </si>
+  <si>
     <t>罗可坚果</t>
   </si>
   <si>
     <t>豌豆迫击炮</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
     <t>小喷菇</t>
   </si>
   <si>
     <t>强化豌豆射手</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>豌豆块</t>
+    </r>
+  </si>
+  <si>
     <t>阳光菇</t>
   </si>
   <si>
     <t>双子向日葵</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪球</t>
+    </r>
+  </si>
+  <si>
     <t>大喷菇</t>
   </si>
   <si>
@@ -3286,12 +3473,61 @@
     <t>潜水僵尸</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辣椒</t>
+    </r>
+  </si>
+  <si>
     <t>磁力菇</t>
   </si>
   <si>
     <t>机枪射手</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孢子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击退效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>寒冰菇</t>
   </si>
   <si>
@@ -3301,6 +3537,44 @@
     <t>雪橇僵尸小队</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>击退效果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>毁灭菇</t>
   </si>
   <si>
@@ -3315,6 +3589,44 @@
         <charset val="134"/>
       </rPr>
       <t>海豚骑士僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未知</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物会受伤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
   <si>
@@ -4322,7 +4634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4390,6 +4702,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4728,15 +5043,15 @@
   <sheetPr/>
   <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34:M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.88888888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.66666666666667" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.7777777777778" style="1" customWidth="1"/>
@@ -4774,7 +5089,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="23"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
@@ -5500,7 +5815,7 @@
       <c r="R14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="S14" s="24" t="s">
+      <c r="S14" s="25" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5556,7 +5871,7 @@
       <c r="R15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="25" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5612,7 +5927,7 @@
       <c r="R16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="25" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5668,7 +5983,7 @@
       <c r="R17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S17" s="24" t="s">
+      <c r="S17" s="25" t="s">
         <v>194</v>
       </c>
     </row>
@@ -5724,7 +6039,7 @@
       <c r="R18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="S18" s="24" t="s">
+      <c r="S18" s="25" t="s">
         <v>204</v>
       </c>
     </row>
@@ -5780,7 +6095,7 @@
       <c r="R19" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="S19" s="24" t="s">
+      <c r="S19" s="25" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5836,7 +6151,7 @@
       <c r="R20" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S20" s="24" t="s">
+      <c r="S20" s="25" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5892,7 +6207,7 @@
       <c r="R21" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="25" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5948,7 +6263,7 @@
       <c r="R22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="S22" s="24" t="s">
+      <c r="S22" s="25" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6004,7 +6319,7 @@
       <c r="R23" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="25" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6060,7 +6375,7 @@
       <c r="R24" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="S24" s="24" t="s">
+      <c r="S24" s="25" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6116,7 +6431,7 @@
       <c r="R25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="S25" s="24" t="s">
+      <c r="S25" s="25" t="s">
         <v>264</v>
       </c>
     </row>
@@ -6172,7 +6487,7 @@
       <c r="R26" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S26" s="24" t="s">
+      <c r="S26" s="25" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6228,7 +6543,7 @@
       <c r="R27" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="S27" s="24" t="s">
+      <c r="S27" s="25" t="s">
         <v>280</v>
       </c>
     </row>
@@ -6284,7 +6599,7 @@
       <c r="R28" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="S28" s="24" t="s">
+      <c r="S28" s="25" t="s">
         <v>289</v>
       </c>
     </row>
@@ -6340,7 +6655,7 @@
       <c r="R29" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S29" s="24" t="s">
+      <c r="S29" s="25" t="s">
         <v>299</v>
       </c>
     </row>
@@ -6396,7 +6711,7 @@
       <c r="R30" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="S30" s="24" t="s">
+      <c r="S30" s="25" t="s">
         <v>309</v>
       </c>
     </row>
@@ -6452,7 +6767,7 @@
       <c r="R31" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="S31" s="25" t="s">
+      <c r="S31" s="26" t="s">
         <v>318</v>
       </c>
     </row>
@@ -6508,7 +6823,7 @@
       <c r="R32" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="S32" s="25" t="s">
+      <c r="S32" s="26" t="s">
         <v>327</v>
       </c>
     </row>
@@ -6541,7 +6856,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:9">
+    <row r="34" customHeight="1" spans="1:13">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -6569,8 +6884,13 @@
       <c r="I34" s="5" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:6">
+      <c r="K34" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="L34" s="8"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:13">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -6578,7 +6898,7 @@
         <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>79</v>
@@ -6587,12 +6907,32 @@
         <v>93</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
+        <v>338</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="11:13">
+      <c r="K36" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:13">
       <c r="A37" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -6602,10 +6942,19 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
+      <c r="K37" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:13">
       <c r="A38" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -6613,12 +6962,21 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
+      <c r="K38" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:13">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -6646,8 +7004,17 @@
       <c r="I39" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
+      <c r="K39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:13">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -6655,7 +7022,7 @@
         <v>14</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>84</v>
@@ -6664,7 +7031,7 @@
         <v>85</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>6</v>
@@ -6675,8 +7042,17 @@
       <c r="I40" s="18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
+      <c r="K40" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="L40" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:13">
       <c r="A41" s="2" t="s">
         <v>22</v>
       </c>
@@ -6684,7 +7060,7 @@
         <v>30</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>97</v>
@@ -6693,7 +7069,7 @@
         <v>98</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>22</v>
@@ -6704,8 +7080,17 @@
       <c r="I41" s="18" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
+      <c r="K41" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:13">
       <c r="A42" s="2" t="s">
         <v>38</v>
       </c>
@@ -6713,7 +7098,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>109</v>
@@ -6722,7 +7107,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>38</v>
@@ -6733,8 +7118,17 @@
       <c r="I42" s="18" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
+      <c r="K42" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="L42" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:13">
       <c r="A43" s="2" t="s">
         <v>54</v>
       </c>
@@ -6742,7 +7136,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>120</v>
@@ -6751,7 +7145,7 @@
         <v>79</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>54</v>
@@ -6762,8 +7156,17 @@
       <c r="I43" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:9">
+      <c r="K43" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:13">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
@@ -6771,7 +7174,7 @@
         <v>76</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>131</v>
@@ -6780,7 +7183,7 @@
         <v>11</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>68</v>
@@ -6791,8 +7194,17 @@
       <c r="I44" s="18" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:9">
+      <c r="K44" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="L44" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:13">
       <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
@@ -6800,7 +7212,7 @@
         <v>90</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>143</v>
@@ -6809,7 +7221,7 @@
         <v>27</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>82</v>
@@ -6818,10 +7230,19 @@
         <v>90</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:9">
+        <v>363</v>
+      </c>
+      <c r="K45" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="L45" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:13">
       <c r="A46" s="2" t="s">
         <v>95</v>
       </c>
@@ -6829,7 +7250,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>154</v>
@@ -6838,7 +7259,7 @@
         <v>43</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>95</v>
@@ -6847,10 +7268,19 @@
         <v>103</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:9">
+        <v>367</v>
+      </c>
+      <c r="K46" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L46" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:13">
       <c r="A47" s="2" t="s">
         <v>107</v>
       </c>
@@ -6858,7 +7288,7 @@
         <v>114</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>165</v>
@@ -6867,7 +7297,7 @@
         <v>59</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>107</v>
@@ -6878,8 +7308,17 @@
       <c r="I47" s="18" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
+      <c r="K47" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="L47" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:13">
       <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
@@ -6887,7 +7326,7 @@
         <v>125</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>176</v>
@@ -6896,7 +7335,7 @@
         <v>73</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>118</v>
@@ -6907,8 +7346,17 @@
       <c r="I48" s="18" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:9">
+      <c r="K48" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="L48" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:13">
       <c r="A49" s="2" t="s">
         <v>129</v>
       </c>
@@ -6916,7 +7364,7 @@
         <v>136</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>187</v>
@@ -6925,7 +7373,7 @@
         <v>87</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>129</v>
@@ -6936,8 +7384,17 @@
       <c r="I49" s="18" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
+      <c r="K49" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="L49" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49" s="23" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:13">
       <c r="A50" s="2" t="s">
         <v>140</v>
       </c>
@@ -6945,7 +7402,7 @@
         <v>141</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>17</v>
@@ -6954,7 +7411,7 @@
         <v>100</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>140</v>
@@ -6965,8 +7422,17 @@
       <c r="I50" s="18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:9">
+      <c r="K50" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L50" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M50" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:13">
       <c r="A51" s="2" t="s">
         <v>151</v>
       </c>
@@ -6974,7 +7440,7 @@
         <v>152</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>33</v>
@@ -6983,7 +7449,7 @@
         <v>111</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>151</v>
@@ -6994,8 +7460,17 @@
       <c r="I51" s="18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:9">
+      <c r="K51" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L51" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M51" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:13">
       <c r="A52" s="2" t="s">
         <v>162</v>
       </c>
@@ -7003,7 +7478,7 @@
         <v>163</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>49</v>
@@ -7012,7 +7487,7 @@
         <v>189</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>162</v>
@@ -7023,8 +7498,17 @@
       <c r="I52" s="18" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:9">
+      <c r="K52" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L52" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:13">
       <c r="A53" s="2" t="s">
         <v>173</v>
       </c>
@@ -7032,7 +7516,7 @@
         <v>174</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>9</v>
@@ -7041,7 +7525,7 @@
         <v>199</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>173</v>
@@ -7050,10 +7534,19 @@
         <v>174</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:9">
+        <v>388</v>
+      </c>
+      <c r="K53" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="L53" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:13">
       <c r="A54" s="2" t="s">
         <v>184</v>
       </c>
@@ -7061,7 +7554,7 @@
         <v>185</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>25</v>
@@ -7070,7 +7563,7 @@
         <v>208</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>184</v>
@@ -7079,10 +7572,19 @@
         <v>185</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:9">
+        <v>391</v>
+      </c>
+      <c r="K54" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L54" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:13">
       <c r="A55" s="2" t="s">
         <v>195</v>
       </c>
@@ -7090,7 +7592,7 @@
         <v>196</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>41</v>
@@ -7099,7 +7601,7 @@
         <v>217</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>195</v>
@@ -7108,10 +7610,19 @@
         <v>196</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:9">
+        <v>394</v>
+      </c>
+      <c r="K55" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L55" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M55" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:13">
       <c r="A56" s="2" t="s">
         <v>141</v>
       </c>
@@ -7119,7 +7630,7 @@
         <v>205</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>378</v>
+        <v>396</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>57</v>
@@ -7128,7 +7639,7 @@
         <v>226</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>141</v>
@@ -7139,8 +7650,17 @@
       <c r="I56" s="18" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:9">
+      <c r="K56" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="2" t="s">
         <v>152</v>
       </c>
@@ -7148,7 +7668,7 @@
         <v>214</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>71</v>
@@ -7157,7 +7677,7 @@
         <v>235</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>152</v>
@@ -7166,10 +7686,19 @@
         <v>214</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:9">
+        <v>401</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:13">
       <c r="A58" s="2" t="s">
         <v>163</v>
       </c>
@@ -7177,7 +7706,7 @@
         <v>223</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>85</v>
@@ -7186,7 +7715,7 @@
         <v>243</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>163</v>
@@ -7195,10 +7724,19 @@
         <v>223</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:9">
+        <v>405</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" s="23" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:12">
       <c r="A59" s="2" t="s">
         <v>174</v>
       </c>
@@ -7206,7 +7744,7 @@
         <v>232</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>98</v>
@@ -7215,7 +7753,7 @@
         <v>251</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>387</v>
+        <v>408</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>174</v>
@@ -7226,6 +7764,8 @@
       <c r="I59" s="18" t="s">
         <v>219</v>
       </c>
+      <c r="K59"/>
+      <c r="L59"/>
     </row>
     <row r="60" customHeight="1" spans="1:9">
       <c r="A60" s="2" t="s">
@@ -7235,7 +7775,7 @@
         <v>48</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>388</v>
+        <v>409</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>282</v>
@@ -7244,7 +7784,7 @@
         <v>259</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>185</v>
@@ -7253,7 +7793,7 @@
         <v>48</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
@@ -7264,7 +7804,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>292</v>
@@ -7273,7 +7813,7 @@
         <v>267</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>196</v>
@@ -7293,7 +7833,7 @@
         <v>24</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>302</v>
@@ -7302,7 +7842,7 @@
         <v>20</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>394</v>
+        <v>415</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>205</v>
@@ -7322,7 +7862,7 @@
         <v>40</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>395</v>
+        <v>416</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>19</v>
@@ -7331,7 +7871,7 @@
         <v>61</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>214</v>
@@ -7351,7 +7891,7 @@
         <v>56</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>35</v>
@@ -7360,7 +7900,7 @@
         <v>62</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>223</v>
@@ -7380,7 +7920,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>51</v>
@@ -7389,7 +7929,7 @@
         <v>63</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>232</v>
@@ -7409,7 +7949,7 @@
         <v>84</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>65</v>
@@ -7418,7 +7958,7 @@
         <v>64</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>290</v>
@@ -7438,7 +7978,7 @@
         <v>97</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>79</v>
@@ -7447,7 +7987,7 @@
         <v>65</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>300</v>
@@ -7467,7 +8007,7 @@
         <v>109</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>11</v>
@@ -7476,7 +8016,7 @@
         <v>12</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>310</v>
@@ -7496,7 +8036,7 @@
         <v>120</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>27</v>
@@ -7505,7 +8045,7 @@
         <v>28</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>319</v>
@@ -7525,7 +8065,7 @@
         <v>17</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>409</v>
+        <v>430</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>43</v>
@@ -7534,7 +8074,7 @@
         <v>44</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>16</v>
@@ -7543,7 +8083,7 @@
         <v>17</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:9">
@@ -7554,16 +8094,16 @@
         <v>33</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>32</v>
@@ -7572,7 +8112,7 @@
         <v>33</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:9">
@@ -7583,7 +8123,7 @@
         <v>49</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>294</v>
@@ -7592,7 +8132,7 @@
         <v>295</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>48</v>
@@ -7601,7 +8141,7 @@
         <v>49</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
@@ -7612,7 +8152,7 @@
         <v>9</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>304</v>
@@ -7621,7 +8161,7 @@
         <v>305</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>8</v>
@@ -7630,7 +8170,7 @@
         <v>9</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:9">
@@ -7641,7 +8181,7 @@
         <v>25</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>313</v>
@@ -7650,7 +8190,7 @@
         <v>314</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>24</v>
@@ -7659,7 +8199,7 @@
         <v>25</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
@@ -7670,7 +8210,7 @@
         <v>41</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>322</v>
@@ -7679,7 +8219,7 @@
         <v>323</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>40</v>
@@ -7688,7 +8228,7 @@
         <v>41</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
@@ -7699,7 +8239,7 @@
         <v>57</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>20</v>
@@ -7708,7 +8248,7 @@
         <v>330</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>56</v>
@@ -7717,7 +8257,7 @@
         <v>57</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
@@ -7728,7 +8268,7 @@
         <v>71</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>36</v>
@@ -7737,7 +8277,7 @@
         <v>334</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>70</v>
@@ -7746,7 +8286,7 @@
         <v>71</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="7:9">
@@ -7757,7 +8297,7 @@
         <v>85</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="7:9">
@@ -7768,7 +8308,7 @@
         <v>98</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="7:9">
@@ -7779,7 +8319,7 @@
         <v>65</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="7:9">
@@ -7790,7 +8330,7 @@
         <v>79</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="7:9">
@@ -7801,7 +8341,7 @@
         <v>11</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="7:9">
@@ -7812,7 +8352,7 @@
         <v>27</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="7:9">
@@ -7823,7 +8363,7 @@
         <v>43</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="7:9">
@@ -7834,7 +8374,7 @@
         <v>59</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="11:12">
@@ -7854,9 +8394,10 @@
       <c r="L96"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
+    <mergeCell ref="K34:M34"/>
     <mergeCell ref="A37:I37"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="G38:I38"/>
